--- a/server/server.Tests/Report/WhiteBox_Prescription_Report.xlsx
+++ b/server/server.Tests/Report/WhiteBox_Prescription_Report.xlsx
@@ -70,37 +70,43 @@
     <x:t>{"appointmentId":999,"prescriptionRequest":"ValidPrescriptionRequest"}</x:t>
   </x:si>
   <x:si>
+    <x:t>{"statusCode":500,"response":{"errorMessage":"Lịch hẹn không tồn tại!"}}</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"statusCode":500,"response":{"errorMessage":"Không tìm thấy lịch hẹn!"}}</x:t>
   </x:si>
   <x:si>
+    <x:t>FAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.78ms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KDT02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kiểm tra kê thuốc cho lịch hẹn có ngày khám là khác ngày hôm nay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Line 63-65: appointmentDate != today -&gt; throw ErrorHandlingException(400)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Condition Coverage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bác sĩ đã đăng nhập, Lịch hẹn tồn tại nhưng ngày khám là ngày khác</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"appointmentId":501,"appointmentDate":"2026-01-06"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"statusCode":400,"response":{"errorMessage":"Chỉ được kê thuốc vào ngày khám!"}}</x:t>
+  </x:si>
+  <x:si>
     <x:t>PASS</x:t>
   </x:si>
   <x:si>
-    <x:t>25.37ms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KDT02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kiểm tra kê thuốc cho lịch hẹn có ngày khám là khác ngày hôm nay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Line 63-65: appointmentDate != today -&gt; throw ErrorHandlingException(400)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Condition Coverage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bác sĩ đã đăng nhập, Lịch hẹn tồn tại nhưng ngày khám là ngày khác</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"appointmentId":501,"appointmentDate":"2026-01-06"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"statusCode":400,"response":{"errorMessage":"Chỉ được kê thuốc vào ngày khám!"}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.70ms</x:t>
+    <x:t>2.58ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT03</x:t>
@@ -121,10 +127,13 @@
     <x:t>{"appointmentId":502,"loggedInDoctorId":10,"appointmentDoctorId":20}</x:t>
   </x:si>
   <x:si>
+    <x:t>{"statusCode":403,"response":{"errorMessage":"Quyền truy cập vào lịch hẹn bị từ chối!"}}</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"statusCode":403,"response":{"errorMessage":"Bạn không có quyền truy cập vào lịch hẹn này!"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>1.06ms</x:t>
+    <x:t>1.01ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT04</x:t>
@@ -148,10 +157,7 @@
     <x:t>{"statusCode":200,"response":{"message":"Tạo toa thuốc thành công!"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"statusCode":200,"response":{"message":"Tạo toa thuốc thành công!","note":"Email failed in unit test (expected)"}}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.43ms</x:t>
+    <x:t>18.50ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT05</x:t>
@@ -175,7 +181,7 @@
     <x:t>{"statusCode":500,"response":{"errorMessage":"Không thể gửi email: Email người gửi không được cấu hình"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>2.79ms</x:t>
+    <x:t>2.78ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT06</x:t>
@@ -199,10 +205,7 @@
     <x:t>{"statusCode":400,"response":{"errorMessage":"Lỗi khi tạo toa thuốc"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>FAIL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.80ms</x:t>
+    <x:t>0.82ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT07</x:t>
@@ -220,7 +223,7 @@
     <x:t>{"appointmentId":601,"addMedicalRecordDetailReturns":"null"}</x:t>
   </x:si>
   <x:si>
-    <x:t>1.32ms</x:t>
+    <x:t>1.81ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT08</x:t>
@@ -244,7 +247,7 @@
     <x:t>{"statusCode":400,"response":{"errorMessage":"Không tìm thấy bệnh nhân!"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>0.93ms</x:t>
+    <x:t>1.14ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT09</x:t>
@@ -265,7 +268,7 @@
     <x:t>{"statusCode":401,"response":{"errorMessage":"Chỉ được kê thuốc vào ngày khám!"}}</x:t>
   </x:si>
   <x:si>
-    <x:t>0.57ms</x:t>
+    <x:t>0.62ms</x:t>
   </x:si>
   <x:si>
     <x:t>KDT10</x:t>
@@ -283,7 +286,7 @@
     <x:t>{"appointmentId":0,"inputType":"edge_case_zero"}</x:t>
   </x:si>
   <x:si>
-    <x:t>0.69ms</x:t>
+    <x:t>1.15ms</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -313,7 +316,7 @@
       <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FF008000"/>
+      <x:color rgb="FFFF0000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -321,7 +324,7 @@
       <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FFFF0000"/>
+      <x:color rgb="FF008000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -340,12 +343,12 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF90EE90"/>
+        <x:fgColor rgb="FFFFB6C1"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFB6C1"/>
+        <x:fgColor rgb="FF90EE90"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -799,328 +802,328 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I2" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J2" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H3" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I3" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J3" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J3" s="4" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K3" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J4" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="J5" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J5" s="4" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G6" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I6" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J6" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J6" s="4" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K6" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I7" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J7" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J7" s="3" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K7" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I8" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J8" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="J8" s="4" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K8" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I9" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="J9" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="J9" s="3" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K9" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G10" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I10" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J10" s="4" t="s">
-        <x:v>61</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J10" s="3" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K10" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G11" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I11" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J11" s="3" t="s">
         <x:v>19</x:v>
       </x:c>
+      <x:c r="J11" s="4" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="K11" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
